--- a/content/species/data/sp_sharks_tbl_3.xlsx
+++ b/content/species/data/sp_sharks_tbl_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3576FE-2547-4885-A931-6EBC229CC012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9770D4CC-8620-42FC-92ED-CC7FC0A7833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FF24FD4-C291-419D-B315-4CBAA202C789}"/>
+    <workbookView xWindow="35715" yWindow="3150" windowWidth="17280" windowHeight="12330" xr2:uid="{7FF24FD4-C291-419D-B315-4CBAA202C789}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <r>
       <t xml:space="preserve"> </t>
@@ -53,21 +53,9 @@
     </r>
   </si>
   <si>
-    <t>Estimated average annual catch 2010-2012</t>
-  </si>
-  <si>
-    <t>Estimated average annual catch 2013-2019</t>
-  </si>
-  <si>
     <t>Fisheries</t>
   </si>
   <si>
-    <t>Notes on major threats in South African waters (Cliff and Olbers 2022)</t>
-  </si>
-  <si>
-    <t>101-400 tonnes</t>
-  </si>
-  <si>
     <t>101-200 tonnes</t>
   </si>
   <si>
@@ -296,9 +284,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Catches are domi ted by the demersal shark longline fishery, the inshore demersal trawl fishery and the commercial linefishery. There is currently limited protective legislation in the form of slot limits which only allow the retention of individuals between 70 and 130 cm. A species-specific ma gement plan is needed.</t>
-  </si>
-  <si>
     <t>Scalloped hammerhead (*Sphyr  lewini*, CR)</t>
   </si>
   <si>
@@ -320,12 +305,6 @@
     <t>Bowmouth guitarfish (*Rhi  ancylostomus*, CR)</t>
   </si>
   <si>
-    <t>Previously caught in small numbers by recreatio l anglers and in the KZN lethal shark control programme, and probably by illegal gillnets. No recently reported local catches; the last known sawfish catch occurred in the KZN lethal shark control programme in 1999.</t>
-  </si>
-  <si>
-    <t>Previously caught in small numbers by recreatio l anglers and in the KZN lethal shark control programme, and probably by illegal gillnets. No recently reported local catches; the last known sawfish catch occurred in the KwaZulu- tal shark control programme in 1999.</t>
-  </si>
-  <si>
     <t>KwaZulu- tal shark control programme and Pelagic longline fishery</t>
   </si>
   <si>
@@ -333,6 +312,24 @@
   </si>
   <si>
     <t>Ornate eagle ray (*Aetomylaeus vespertilio*, CR)</t>
+  </si>
+  <si>
+    <t>Catches are domi ted by the demersal shark longline fishery, the inshore demersal trawl fishery and the commercial linefishery. There is currently limited protective legislation in the form of slot limits which only allow the retention of individuals between 70 and 130 cm. A species-specific fisheries management plan is needed.</t>
+  </si>
+  <si>
+    <t>&lt;1 tonne with 1-10 tonnes reported between  2010-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previously caught in small numbers by recreational anglers and in the KZN lethal shark control programme, and probably by illegal gillnets. No recently reported local catches; the last known sawfish catch occurred in the KZN lethal shark control programme in 1999. Estuarine degradation likely contributed to declines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previously caught in small numbers by recreational anglers and in the KZN lethal shark control programme, and probably by illegal gillnets. No recently reported local catches; the last known sawfish catch occurred in the KwaZulu-Natal shark control programme in 1999. Estuarine degradation likely contributed to declines. </t>
+  </si>
+  <si>
+    <t>Notes on major threats in South African waters</t>
+  </si>
+  <si>
+    <t>Estimated average annual catch 2013-2019 in tonnes (DFFE 2022, Appendix II)</t>
   </si>
 </sst>
 </file>
@@ -830,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80A5BEA-1770-49AB-84BB-C0A0DA8C6949}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,260 +838,219 @@
     <col min="1" max="1" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="290.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="359.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="294.89999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="290.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="359.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="294.89999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="280.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="280.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="294.89999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="294.89999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="C11:C18"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
     <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1102,15 +1058,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c860c8d8cea428af55d2deb18db3c3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a1915556badb0c1501ee51a52d85f263" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1388,6 +1335,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1402,14 +1358,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7108D55E-9F5F-4E55-AA2F-C779D55D9A57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6950D842-7675-4116-8252-673E5CECD50B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1429,6 +1377,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7108D55E-9F5F-4E55-AA2F-C779D55D9A57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC00F95-C7E4-4033-945B-8BC42CE89515}">
   <ds:schemaRefs>

--- a/content/species/data/sp_sharks_tbl_3.xlsx
+++ b/content/species/data/sp_sharks_tbl_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workflows\NBA\content\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9770D4CC-8620-42FC-92ED-CC7FC0A7833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377EA152-2E56-45F2-857B-C97E9E6B6116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35715" yWindow="3150" windowWidth="17280" windowHeight="12330" xr2:uid="{7FF24FD4-C291-419D-B315-4CBAA202C789}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FF24FD4-C291-419D-B315-4CBAA202C789}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
     <t>Fisheries</t>
   </si>
   <si>
-    <t>101-200 tonnes</t>
-  </si>
-  <si>
-    <t>Demersal shark longline, Demersal trawl, Commercial linefishery</t>
-  </si>
-  <si>
     <t>1-10 tonnes</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Pelagic longlining is the major component, followed by the small pelagic fishery. Globally, this species has experienced enormous and prolonged fishing pressure and is now rare in many places.</t>
   </si>
   <si>
-    <t>It was not listed in estimated catches recorded by DFFE for the period 2010–2012. This species was a bycatch in the now closed KZN prawn trawl fishery on the uThukela Banks and is infrequently caught by the KZN lethal shark control programme and by shore anglers.</t>
-  </si>
-  <si>
     <t>First confirmed in South Africa in 2018. No recorded catches in South Africa.</t>
   </si>
   <si>
@@ -107,12 +98,6 @@
     </r>
   </si>
   <si>
-    <t>This species is rare in South African waters and hard to distinguish from conspecifics. The KZN lethal shark control programme is the major contributor to catches in South African waters.</t>
-  </si>
-  <si>
-    <t>This species appears to be uncommon in South African waters and is hard to distinguish from conspecifics. The KZN lethal shark control programme is probably the major contributor to catches in South African waters.</t>
-  </si>
-  <si>
     <r>
       <t>Soupfin shark (*</t>
     </r>
@@ -186,7 +171,7 @@
   </si>
   <si>
     <r>
-      <t>Green sawfish (</t>
+      <t>Shorttail nurse shark (*</t>
     </r>
     <r>
       <rPr>
@@ -196,7 +181,7 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t>Pristis zijsron</t>
+      <t>Pseudoginglymostoma brevicaudatum*</t>
     </r>
     <r>
       <rPr>
@@ -210,7 +195,7 @@
   </si>
   <si>
     <r>
-      <t>Shorttail nurse shark (*</t>
+      <t>Bentfin devil ray (*</t>
     </r>
     <r>
       <rPr>
@@ -220,7 +205,7 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t>Pseudoginglymostoma brevicaudatum*</t>
+      <t>Mobula thurstoni*</t>
     </r>
     <r>
       <rPr>
@@ -233,8 +218,29 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Spinetail devil ray (</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sicklefin devil ray (*Mobula tarapaca *, CR)</t>
+  </si>
+  <si>
+    <t>Ornate eagle ray (*Aetomylaeus vespertilio*, CR)</t>
+  </si>
+  <si>
+    <t>&lt;1 tonne with 1-10 tonnes reported between  2010-2012</t>
+  </si>
+  <si>
+    <t>Notes on major threats in South African waters</t>
+  </si>
+  <si>
+    <t>Estimated average annual catch 2013-2019 in tonnes (DFFE 2022, Appendix II)</t>
+  </si>
+  <si>
+    <t>Bowmouth guitarfish (*Rhina ancylostomus*, CR)</t>
+  </si>
+  <si>
+    <r>
+      <t>Spinetail devil ray (*</t>
     </r>
     <r>
       <rPr>
@@ -244,7 +250,7 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t>Mobula mobular</t>
+      <t>Mobula mobular*</t>
     </r>
     <r>
       <rPr>
@@ -257,8 +263,14 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Bentfin devil ray (*</t>
+    <t>Scalloped hammerhead (*Sphyrna  lewini*, CR)</t>
+  </si>
+  <si>
+    <t>Great hammerhead (*Sphyrna  mokarran*, CR)</t>
+  </si>
+  <si>
+    <r>
+      <t>Green sawfish (*</t>
     </r>
     <r>
       <rPr>
@@ -268,7 +280,7 @@
         <rFont val="Aptos"/>
         <family val="2"/>
       </rPr>
-      <t>Mobula thurstoni*</t>
+      <t>Pristis zijsron*</t>
     </r>
     <r>
       <rPr>
@@ -281,55 +293,43 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Scalloped hammerhead (*Sphyr  lewini*, CR)</t>
-  </si>
-  <si>
-    <t>Recreatio l linefish, KwaZulu- tal shark control programme, Small pelagic and midwater trawl</t>
-  </si>
-  <si>
-    <t>The KZN lethal shark control programme is the largest contributor, followed by demersal trawling and prawn trawl fishery. It is also caught in the recreatio l linefishery, but catches are not recorded. It is also suspected catch in the pelagic longline, demersal longline and commercial linefishery.</t>
-  </si>
-  <si>
-    <t>Great hammerhead (Sphyr  mokarran, CR)</t>
-  </si>
-  <si>
-    <t>KwaZulu- tal shark control programme</t>
-  </si>
-  <si>
-    <t>The KZN lethal shark control programme is the only definite contributor. It is suspected catch in the pelagic longline, and commercial and recreatio l line fisheries.</t>
-  </si>
-  <si>
-    <t>Bowmouth guitarfish (*Rhi  ancylostomus*, CR)</t>
-  </si>
-  <si>
-    <t>KwaZulu- tal shark control programme and Pelagic longline fishery</t>
-  </si>
-  <si>
-    <t>Sicklefin devil ray (*Mobula tarapaca *, CR)</t>
-  </si>
-  <si>
-    <t>Ornate eagle ray (*Aetomylaeus vespertilio*, CR)</t>
-  </si>
-  <si>
-    <t>Catches are domi ted by the demersal shark longline fishery, the inshore demersal trawl fishery and the commercial linefishery. There is currently limited protective legislation in the form of slot limits which only allow the retention of individuals between 70 and 130 cm. A species-specific fisheries management plan is needed.</t>
-  </si>
-  <si>
-    <t>&lt;1 tonne with 1-10 tonnes reported between  2010-2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previously caught in small numbers by recreational anglers and in the KZN lethal shark control programme, and probably by illegal gillnets. No recently reported local catches; the last known sawfish catch occurred in the KZN lethal shark control programme in 1999. Estuarine degradation likely contributed to declines. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previously caught in small numbers by recreational anglers and in the KZN lethal shark control programme, and probably by illegal gillnets. No recently reported local catches; the last known sawfish catch occurred in the KwaZulu-Natal shark control programme in 1999. Estuarine degradation likely contributed to declines. </t>
-  </si>
-  <si>
-    <t>Notes on major threats in South African waters</t>
-  </si>
-  <si>
-    <t>Estimated average annual catch 2013-2019 in tonnes (DFFE 2022, Appendix II)</t>
+    <t>101-200 tonnes with 101-400 tonnes reported for 2010-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previously caught in small numbers by recreational anglers and in the KwaZulu-Natal lethal shark control programme, and probably by illegal gillnets. No recently reported local catches; the last known sawfish catch occurred in the KwaZulu-Natal lethal shark control programme in 1999. Estuarine degradation likely contributed to declines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previously caught in small numbers by recreational anglers and in the KwaZulu-Natal lethal shark control programme, and probably by illegal gillnets. No recently reported local catches; the last known sawfish catch occurred in the KwaZulu-Natal shark control programme in 1999. Estuarine degradation likely contributed to declines. </t>
+  </si>
+  <si>
+    <t>This species is rare in South African waters and hard to distinguish from conspecifics. The KwaZulu-Natal lethal shark control programme is the major contributor to catches in South African waters.</t>
+  </si>
+  <si>
+    <t>It was not listed in estimated catches recorded by DFFE for the period 2010–2012. This species was a bycatch in the now closed KwaZulu-Natal prawn trawl fishery on the uThukela Banks and is infrequently caught by the KwaZulu-Natal lethal shark control programme and by shore anglers.</t>
+  </si>
+  <si>
+    <t>This species appears to be uncommon in South African waters and is hard to distinguish from conspecifics. The KwaZulu-Natal lethal shark control programme is probably the major contributor to catches in South African waters.</t>
+  </si>
+  <si>
+    <t>The KwaZulu-Natal lethal shark control programme is the only definite contributor. It is suspected catch in the pelagic longline, and commercial and recreational line fisheries.</t>
+  </si>
+  <si>
+    <t>Catches are dominated by the demersal shark longline fishery, the inshore demersal trawl fishery and the commercial line fishery. There is currently limited protective legislation in the form of slot limits which only allow the retention of individuals between 70 and 130 cm. A species-specific fisheries management plan is needed.</t>
+  </si>
+  <si>
+    <t>The KwaZulu-Natal lethal shark control programme is the largest contributor, followed by demersal trawling and prawn trawl fishery. It is also caught in the recreational line fishery, but catches are not recorded. It is also suspected catch in the pelagic longline, demersal longline and commercial line fishery.</t>
+  </si>
+  <si>
+    <t>Recreational linefish, KwaZulu-Natal shark control programme, Small pelagic and midwater trawl</t>
+  </si>
+  <si>
+    <t>KwaZulu-Natal shark control programme</t>
+  </si>
+  <si>
+    <t>KwaZulu-Natal shark control programme and Pelagic longline fishery</t>
+  </si>
+  <si>
+    <t>Demersal shark longline, Demersal trawl, Commercial line fishery</t>
   </si>
 </sst>
 </file>
@@ -830,213 +830,215 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="100.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="166.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="149.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="351.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="290.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="359.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="9" spans="1:4" ht="122.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="270.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="11" spans="1:4" ht="294.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="294.89999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="280.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="280.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="294.89999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="294.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1058,6 +1060,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c860c8d8cea428af55d2deb18db3c3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a1915556badb0c1501ee51a52d85f263" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1335,15 +1346,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1358,6 +1360,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7108D55E-9F5F-4E55-AA2F-C779D55D9A57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6950D842-7675-4116-8252-673E5CECD50B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1377,14 +1387,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7108D55E-9F5F-4E55-AA2F-C779D55D9A57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC00F95-C7E4-4033-945B-8BC42CE89515}">
   <ds:schemaRefs>
